--- a/data-raw/DeltaEntry_ReleaseFishRaw.xlsx
+++ b/data-raw/DeltaEntry_ReleaseFishRaw.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5362FEA84CE43B3B9000DA146D8505925094534B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="ReleaseFish-EDIQuery" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="ReleaseFish-EDIQuery"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>projectDescriptionID</t>
-  </si>
-  <si>
-    <t>releaseFishID</t>
-  </si>
-  <si>
-    <t>releaseID</t>
-  </si>
-  <si>
-    <t>forkLength</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,18 +24,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -61,8 +69,26 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,28 +97,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFD0D7E5"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFD0D7E5"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFD0D7E5"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFD0D7E5"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -100,14 +176,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,27 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,24 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,33 +463,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col customWidth="true" min="1" max="1" width="14.0625"/>
+    <col customWidth="true" min="2" max="2" width="16.40625"/>
+    <col customWidth="true" min="3" max="3" width="12.7421875"/>
+    <col customWidth="true" min="4" max="4" width="13.9140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>projectDescriptionID</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>releaseFishID</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>releaseID</t>
+        </is>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>forkLength</t>
+        </is>
       </c>
     </row>
   </sheetData>
